--- a/lib/races/Race.xlsx
+++ b/lib/races/Race.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Aasimar</t>
   </si>
@@ -43,6 +43,33 @@
     <t>Plumekith Aasimar</t>
   </si>
   <si>
+    <t>Asmodeus Tiefling</t>
+  </si>
+  <si>
+    <t>Baalzebul Tiefling</t>
+  </si>
+  <si>
+    <t>Dispater Tiefling</t>
+  </si>
+  <si>
+    <t>Fierna Tiefling</t>
+  </si>
+  <si>
+    <t>Glasya Tiefling</t>
+  </si>
+  <si>
+    <t>Levistus Tiefling</t>
+  </si>
+  <si>
+    <t>Mammon Tiefling</t>
+  </si>
+  <si>
+    <t>Mephistopheles Tiefling</t>
+  </si>
+  <si>
+    <t>Zariel Tiefling</t>
+  </si>
+  <si>
     <t>0=0=0=0=1=2</t>
   </si>
   <si>
@@ -64,6 +91,33 @@
     <t>Charisma=1/Light/0</t>
   </si>
   <si>
+    <t>Charisma=1/Thaumaturgy/0=3/Hellish Rebuke/2=5/Darkness/2</t>
+  </si>
+  <si>
+    <t>Charisma=1/Thaumaturgy/0=3/Ray of Sickness/2=5/Crown of Madness/2</t>
+  </si>
+  <si>
+    <t>Charisma=1/Thaumaturgy/0=3/Disguise Self/1=5/Detect Thoughts/2</t>
+  </si>
+  <si>
+    <t>Charisma=1/Friends/0=3/Charm Person/2=5/Suggestion/2</t>
+  </si>
+  <si>
+    <t>Charisma=1/Minor Illusion/0=3/Disguise Self/1=5/Invisibility/2</t>
+  </si>
+  <si>
+    <t>Charisma=1/Ray of Frost/0=3/Armor of Agathys/2=5/Darkness/2</t>
+  </si>
+  <si>
+    <t>Charisma=1/Mage Hand/0=3/Tenser's Floating Disk/1=5/Arcane Lock/2</t>
+  </si>
+  <si>
+    <t>Charisma=1/Mage Hand/0=3/Burning Hands/2=5/Flame Blade/2</t>
+  </si>
+  <si>
+    <t>Charisma=1/Thaumaturgy/0=3/Searing Smite/2=5/Branding Smite/2</t>
+  </si>
+  <si>
     <t>Darkvision=Celestial Resistance=Healing Hands</t>
   </si>
   <si>
@@ -94,13 +148,22 @@
     <t>Darkvision=Celestial Resistance=Healing Hands=Toxophilite</t>
   </si>
   <si>
+    <t>Darkvision=Hellish Resistance</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
     <t>Common=Celestial</t>
   </si>
   <si>
+    <t>Common=Infernal</t>
+  </si>
+  <si>
     <t>races/aasimar/Names.xlsx</t>
+  </si>
+  <si>
+    <t>races/tiefling/Names.xlsx</t>
   </si>
 </sst>
 </file>
@@ -388,101 +451,209 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -516,37 +687,91 @@
       <c r="J5" s="1">
         <v>160.0</v>
       </c>
+      <c r="K5" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -580,69 +805,150 @@
       <c r="J7" s="1">
         <v>30.0</v>
       </c>
+      <c r="K7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
